--- a/Assets/Excel/CharaInfo.xlsx
+++ b/Assets/Excel/CharaInfo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\方案\2已结束的方案\离谱小说家\github同步文件夹\新建文件夹\Nonsense_Novelist\Assets\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF35335-6837-4DF9-A14B-924840AD50F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView xWindow="10260" yWindow="4785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharaInfo" sheetId="3" r:id="rId1"/>
@@ -335,14 +341,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,345 +357,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -703,251 +379,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -955,65 +389,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1263,21 +653,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="21.6" spans="1:12">
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1391,7 +781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" ht="32.4" spans="1:12">
+    <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1429,7 +819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="1:12">
+    <row r="6" spans="1:12" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1467,7 +857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" ht="54" spans="1:12">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1505,7 +895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" ht="43.2" spans="1:12">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1543,7 +933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" ht="32.4" spans="1:12">
+    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1581,7 +971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="32.4" spans="1:12">
+    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1619,7 +1009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="32.4" spans="1:12">
+    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1657,7 +1047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" ht="43.2" spans="1:12">
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1695,7 +1085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="43.2" spans="1:12">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1733,7 +1123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" ht="64.8" spans="1:12">
+    <row r="14" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1771,7 +1161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" ht="21.6" spans="1:12">
+    <row r="15" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1809,7 +1199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="32.4" spans="1:12">
+    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>110</v>
       </c>
@@ -1847,7 +1237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="21.6" spans="1:12">
+    <row r="17" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>111</v>
       </c>
@@ -1885,7 +1275,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" ht="32.4" spans="1:12">
+    <row r="18" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>112</v>
       </c>
@@ -1923,7 +1313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="32.4" spans="1:12">
+    <row r="19" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>113</v>
       </c>
@@ -1961,7 +1351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" ht="43.2" spans="1:12">
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>210</v>
       </c>
@@ -1975,19 +1365,19 @@
         <v>7</v>
       </c>
       <c r="E20" s="1">
-        <v>150</v>
+        <v>434</v>
       </c>
       <c r="F20" s="1">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="G20" s="1">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="H20" s="1">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>99</v>
@@ -2000,7 +1390,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Excel/CharaInfo.xlsx
+++ b/Assets/Excel/CharaInfo.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\方案\2已结束的方案\离谱小说家\github同步文件夹\新建文件夹\Nonsense_Novelist\Assets\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF35335-6837-4DF9-A14B-924840AD50F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="4785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="CharaInfo" sheetId="3" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="135">
   <si>
     <t>charaID</t>
   </si>
@@ -336,13 +330,121 @@
   </si>
   <si>
     <t>削弱所有人3意志，用于强化自身的意志</t>
+  </si>
+  <si>
+    <t>工蚁</t>
+  </si>
+  <si>
+    <t>CS_GongYi</t>
+  </si>
+  <si>
+    <t>蚁群</t>
+  </si>
+  <si>
+    <t>己方的工蚁越多越强大</t>
+  </si>
+  <si>
+    <t>本杰士堆</t>
+  </si>
+  <si>
+    <t>CS_BenJieShiDui</t>
+  </si>
+  <si>
+    <t>庇护所</t>
+  </si>
+  <si>
+    <t>使自己和宿主获得“再生”</t>
+  </si>
+  <si>
+    <t>益智喂食器</t>
+  </si>
+  <si>
+    <t>CS_YiZhiWeiShiQi</t>
+  </si>
+  <si>
+    <t>有益的刁难</t>
+  </si>
+  <si>
+    <t>周期给队友提供“亢奋”</t>
+  </si>
+  <si>
+    <t>MG-42机枪</t>
+  </si>
+  <si>
+    <t>CS_MG42gun</t>
+  </si>
+  <si>
+    <t>弹链</t>
+  </si>
+  <si>
+    <t>攻速更快，需要换弹</t>
+  </si>
+  <si>
+    <t>混养笼</t>
+  </si>
+  <si>
+    <t>CS_HunYangLong</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>CS_Mao</t>
+  </si>
+  <si>
+    <t>迷人</t>
+  </si>
+  <si>
+    <t>攻击有概率造成5s”意乱“</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>CS_DuMoGu</t>
+  </si>
+  <si>
+    <t>不可食用</t>
+  </si>
+  <si>
+    <t>对攻击者造成5s“中毒”</t>
+  </si>
+  <si>
+    <t>饼</t>
+  </si>
+  <si>
+    <t>CS_Bing</t>
+  </si>
+  <si>
+    <t>美味在其中</t>
+  </si>
+  <si>
+    <t>死亡时，宿主获得高级名词</t>
+  </si>
+  <si>
+    <t>电子羊</t>
+  </si>
+  <si>
+    <t>CS_Sheep</t>
+  </si>
+  <si>
+    <t>劣质产品</t>
+  </si>
+  <si>
+    <t>死亡时爆炸</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,21 +459,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -379,9 +805,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -393,17 +1061,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -653,21 +1365,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +1417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -743,7 +1455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="21.6" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -781,7 +1493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="5" ht="32.4" spans="1:12">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -819,7 +1531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="6" ht="54" spans="1:12">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -857,7 +1569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+    <row r="7" ht="54" spans="1:12">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -895,7 +1607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+    <row r="8" ht="43.2" spans="1:12">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -933,7 +1645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="9" ht="32.4" spans="1:12">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -971,7 +1683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="10" ht="32.4" spans="1:12">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1009,7 +1721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="11" ht="43.2" spans="1:12">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1047,7 +1759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+    <row r="12" ht="54" spans="1:12">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1085,7 +1797,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+    <row r="13" ht="43.2" spans="1:12">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1123,7 +1835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="14" ht="75.6" spans="1:12">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1161,7 +1873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="15" ht="32.4" spans="1:12">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1199,7 +1911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="16" ht="32.4" spans="1:12">
       <c r="A16" s="1">
         <v>110</v>
       </c>
@@ -1237,7 +1949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="17" ht="32.4" spans="1:12">
       <c r="A17" s="1">
         <v>111</v>
       </c>
@@ -1275,7 +1987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="18" ht="43.2" spans="1:12">
       <c r="A18" s="1">
         <v>112</v>
       </c>
@@ -1313,7 +2025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="19" ht="43.2" spans="1:12">
       <c r="A19" s="1">
         <v>113</v>
       </c>
@@ -1351,7 +2063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+    <row r="20" ht="54" spans="1:12">
       <c r="A20" s="1">
         <v>210</v>
       </c>
@@ -1389,8 +2101,350 @@
         <v>35</v>
       </c>
     </row>
+    <row r="21" ht="32.4" spans="1:12">
+      <c r="A21" s="1">
+        <v>301</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" ht="32.4" spans="1:12">
+      <c r="A22" s="1">
+        <v>302</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" ht="32.4" spans="1:12">
+      <c r="A23" s="1">
+        <v>303</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" ht="32.4" spans="1:12">
+      <c r="A24" s="1">
+        <v>304</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" ht="21.6" spans="1:12">
+      <c r="A25" s="1">
+        <v>305</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" ht="43.2" spans="1:12">
+      <c r="A26" s="1">
+        <v>306</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" ht="32.4" spans="1:12">
+      <c r="A27" s="1">
+        <v>307</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" ht="32.4" spans="1:12">
+      <c r="A28" s="1">
+        <v>308</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>30</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>30</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" ht="21.6" spans="1:12">
+      <c r="A29" s="1">
+        <v>309</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>40</v>
+      </c>
+      <c r="F29" s="1">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1">
+        <v>12</v>
+      </c>
+      <c r="I29" s="1">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>